--- a/Inversiones de Tiempo/Inversion de Tiempo-Andres Urizar.xlsx
+++ b/Inversiones de Tiempo/Inversion de Tiempo-Andres Urizar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\Documents\UVG\Quinto semestre\Ingenieria_de_software_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8BF18B1-8897-4A37-AF6B-6C4AE91489BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5363A0CA-A085-4261-9BB8-E319273355E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{C0D1C8BF-9238-44B1-84F1-F3F3D7B6946D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>No.</t>
   </si>
@@ -78,6 +78,30 @@
   </si>
   <si>
     <t>Persona que ya ha votado varias veces, y tiene conocimiento acerca de la tecnología</t>
+  </si>
+  <si>
+    <t>Lluvia de ideas</t>
+  </si>
+  <si>
+    <t>Preguntas</t>
+  </si>
+  <si>
+    <t>Codings</t>
+  </si>
+  <si>
+    <t>Mapa de Empatía</t>
+  </si>
+  <si>
+    <t>8 h</t>
+  </si>
+  <si>
+    <t>Definición del problema</t>
+  </si>
+  <si>
+    <t>Insights</t>
+  </si>
+  <si>
+    <t>21/2/2019</t>
   </si>
 </sst>
 </file>
@@ -113,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -127,6 +151,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,14 +478,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A89EED-FB9F-4965-890D-361DD871590A}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" customWidth="1"/>
@@ -666,6 +704,162 @@
       </c>
       <c r="J7" s="1"/>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7">
+        <v>43648</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.28125</v>
+      </c>
+      <c r="F8" s="9">
+        <v>10</v>
+      </c>
+      <c r="G8" s="9">
+        <v>15</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10">
+        <v>43648</v>
+      </c>
+      <c r="D9" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="10">
+        <v>43740</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F10" s="9">
+        <v>20</v>
+      </c>
+      <c r="G10" s="9">
+        <v>40</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="10">
+        <v>43771</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="10">
+        <v>43801</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="F12" s="9">
+        <v>5</v>
+      </c>
+      <c r="G12" s="9">
+        <v>10</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Inversiones de Tiempo/Inversion de Tiempo-Andres Urizar.xlsx
+++ b/Inversiones de Tiempo/Inversion de Tiempo-Andres Urizar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\Documents\UVG\Quinto semestre\Ingenieria_de_software_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5363A0CA-A085-4261-9BB8-E319273355E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB8A809-678F-41E2-89A6-8EE27CE75A0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{C0D1C8BF-9238-44B1-84F1-F3F3D7B6946D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>No.</t>
   </si>
@@ -102,6 +102,33 @@
   </si>
   <si>
     <t>21/2/2019</t>
+  </si>
+  <si>
+    <t>Design Thinking - Lluvia de ideas</t>
+  </si>
+  <si>
+    <t>2do corte</t>
+  </si>
+  <si>
+    <t>Se realizó la lluvia de ideas y también la votación de las mejores a criterio de los integrantes</t>
+  </si>
+  <si>
+    <t>Design Thinking - Captura de requisitos</t>
+  </si>
+  <si>
+    <t>Por medio de las ideas más votadas se realizaron la captura de requisitos</t>
+  </si>
+  <si>
+    <t>Creación de Story Boards</t>
+  </si>
+  <si>
+    <t>Se realizaron dos storyboards</t>
+  </si>
+  <si>
+    <t>Documento 2 corte</t>
+  </si>
+  <si>
+    <t>Informe de gestión y CMMI - Dev</t>
   </si>
 </sst>
 </file>
@@ -137,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -164,6 +191,36 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,15 +535,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A89EED-FB9F-4965-890D-361DD871590A}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" customWidth="1"/>
@@ -860,6 +918,122 @@
         <v>10</v>
       </c>
     </row>
+    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="10">
+        <v>43558</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F14" s="9">
+        <v>15</v>
+      </c>
+      <c r="G14" s="9">
+        <v>75</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="10">
+        <v>43558</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F15" s="9">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>75</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="16">
+        <v>43529</v>
+      </c>
+      <c r="D16" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.1875</v>
+      </c>
+      <c r="F16" s="14">
+        <v>30</v>
+      </c>
+      <c r="G16" s="14">
+        <v>120</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="20">
+        <v>43538</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F17" s="19">
+        <v>30</v>
+      </c>
+      <c r="G17" s="19">
+        <v>180</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Inversiones de Tiempo/Inversion de Tiempo-Andres Urizar.xlsx
+++ b/Inversiones de Tiempo/Inversion de Tiempo-Andres Urizar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\Documents\UVG\Quinto semestre\Ingenieria_de_software_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB8A809-678F-41E2-89A6-8EE27CE75A0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8D2F02-10B3-472D-BD8A-EB5674F3B82F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{C0D1C8BF-9238-44B1-84F1-F3F3D7B6946D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C0D1C8BF-9238-44B1-84F1-F3F3D7B6946D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>No.</t>
   </si>
@@ -129,6 +129,42 @@
   </si>
   <si>
     <t>Informe de gestión y CMMI - Dev</t>
+  </si>
+  <si>
+    <t>3er corte</t>
+  </si>
+  <si>
+    <t>Creación de diagramas de clase de análisis</t>
+  </si>
+  <si>
+    <t>Se iniciaron los diagramas de clase de análisis, del caso de uso del 5 al 9</t>
+  </si>
+  <si>
+    <t>Creación de diagramas de colaboración</t>
+  </si>
+  <si>
+    <t>Se iniciaron los diagramas de colaboración del caso de uso del 5 al 9</t>
+  </si>
+  <si>
+    <t>Descripción de clases</t>
+  </si>
+  <si>
+    <t>Se describieron las clases de los casos de uso del 5 al 9</t>
+  </si>
+  <si>
+    <t>Diagrama de paquetes</t>
+  </si>
+  <si>
+    <t>Se realizaron los diagramas de paquetes de los casos de uso del 5 al 9</t>
+  </si>
+  <si>
+    <t>Descripcion de paquetes</t>
+  </si>
+  <si>
+    <t>Diagrama de clases persistentes</t>
+  </si>
+  <si>
+    <t>Se realizo el diagrama de clases persistentes</t>
   </si>
 </sst>
 </file>
@@ -535,11 +571,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A89EED-FB9F-4965-890D-361DD871590A}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,7 +1012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -1001,11 +1037,11 @@
       <c r="H16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -1030,8 +1066,182 @@
       <c r="H17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="12" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="10">
+        <v>43552</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="F18" s="18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>47</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="10">
+        <v>43552</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0.46875</v>
+      </c>
+      <c r="F19" s="18">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>65</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="10">
+        <v>43552</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0.46875</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="10">
+        <v>43552</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.96875</v>
+      </c>
+      <c r="F21" s="18">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>57</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="10">
+        <v>43552</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="F22" s="18">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="10">
+        <v>43553</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="E23" s="11">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="F23" s="18">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>70</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
